--- a/data/background/analysis.xlsx
+++ b/data/background/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC60874-71D6-4723-AB46-5A6B119BF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C64F48-FCE7-4231-96C4-D3904FAAF5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="slam-studies" sheetId="1" r:id="rId1"/>
@@ -1278,22 +1278,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="50.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="50.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>144</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>146</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>151</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>154</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2179,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB111D02-EF41-4E1B-B2E8-9EF56AF1BBEC}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
